--- a/00_Document/03_Testing/02_Frontend/テストケース番号作成方法.xlsx
+++ b/00_Document/03_Testing/02_Frontend/テストケース番号作成方法.xlsx
@@ -19,37 +19,100 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>01 - 管理者</t>
   </si>
   <si>
-    <t>001 - テストケース番号</t>
-  </si>
-  <si>
     <t>02　- スタッフ</t>
   </si>
   <si>
-    <t xml:space="preserve">001　-　管理者作成 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">002　-　スタッフ作成 </t>
-  </si>
-  <si>
-    <t>01_001_001 -&gt; 管理者　管理者作成　テストケース1番</t>
-  </si>
-  <si>
-    <t>003　-　スタッフ`のホーム画面</t>
-  </si>
-  <si>
-    <t>004　-　スタッフの注文一覧画面</t>
+    <t>001　-　ログイン画面</t>
+  </si>
+  <si>
+    <t>002　-　スタッフ画面</t>
+  </si>
+  <si>
+    <t>01_001_001 -&gt; 管理者　ログイン画面　テストケース1番</t>
+  </si>
+  <si>
+    <t>01_001_002 -&gt; 管理者　ログイン画面　テストケース2番</t>
+  </si>
+  <si>
+    <t>01_001_003 -&gt; 管理者　ログイン画面　テストケース3番</t>
+  </si>
+  <si>
+    <t>01 - テストケース番号</t>
+  </si>
+  <si>
+    <t>01_002_001-&gt; 管理者　スタッフ画面　テストケース1番</t>
+  </si>
+  <si>
+    <t>01_002_002 -&gt; 管理者　スタッフ画面　テストケース2番</t>
+  </si>
+  <si>
+    <t>01_002_003 -&gt; 管理者　スタッフ画面　テストケース3番</t>
+  </si>
+  <si>
+    <t>01_002_004 -&gt; 管理者　スタッフ画面　テストケース4番</t>
+  </si>
+  <si>
+    <t>01_002_005 -&gt; 管理者　スタッフ画面　テストケース5番</t>
+  </si>
+  <si>
+    <t>001　-　パスワード変更画面</t>
+  </si>
+  <si>
+    <t>02_001_001 -&gt; スタッフ　パスワード変更画面　テストケース1番</t>
+  </si>
+  <si>
+    <t>02_001_002 -&gt; スタッフ　パスワード変更画面　テストケース2番</t>
+  </si>
+  <si>
+    <t>02_001_003 -&gt; スタッフ　パスワード変更画面　テストケース3番</t>
+  </si>
+  <si>
+    <t>02_001_004 -&gt; スタッフ　パスワード変更画面　テストケース4番</t>
+  </si>
+  <si>
+    <t>003　-　スタッフの注文一覧画面</t>
+  </si>
+  <si>
+    <t>002　-　スタッフのホーム画面</t>
+  </si>
+  <si>
+    <t>02_002_001 -&gt; スタッフ　ホーム画面　テストケース1番</t>
+  </si>
+  <si>
+    <t>02_002_002 -&gt; スタッフ　ホーム画面　テストケース2番</t>
+  </si>
+  <si>
+    <t>02_002_003-&gt; スタッフ　ホーム画面　テストケース3番</t>
+  </si>
+  <si>
+    <t>02_002_004 -&gt; スタッフ　ホーム画面　テストケース4番</t>
+  </si>
+  <si>
+    <t>02_002_005 -&gt; スタッフ　ホーム画面　テストケース5番</t>
+  </si>
+  <si>
+    <t>02_002_006 -&gt; スタッフ　ホーム画面　テストケース6番</t>
+  </si>
+  <si>
+    <t>02_002_007 -&gt; スタッフ　ホーム画面　テストケース7番</t>
+  </si>
+  <si>
+    <t>02_003_001 -&gt; スタッフ　注文一覧画面　テストケース1番</t>
+  </si>
+  <si>
+    <t>02_003_002 -&gt; スタッフ　注文一覧画面　テストケース2番</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +125,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,8 +154,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -358,7 +431,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -366,53 +439,164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B14"/>
+  <dimension ref="B3:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
-        <v>5</v>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B14:E14"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
